--- a/output/calorimetry/ds.3.ampoule.bad/data.xlsx
+++ b/output/calorimetry/ds.3.ampoule.bad/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -100,28 +100,31 @@
     <t xml:space="preserve">h</t>
   </si>
   <si>
-    <t xml:space="preserve">cnst</t>
+    <t xml:space="preserve">Constant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St.Deviation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">dev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">validity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value</t>
   </si>
   <si>
     <t xml:space="preserve">name</t>
@@ -1221,15 +1224,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1237,7 +1240,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1245,10 +1248,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +1710,7 @@
         <v>32</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -1831,7 +1834,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -1948,13 +1951,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -1970,178 +1973,178 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
         <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +2163,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">

--- a/output/calorimetry/ds.3.ampoule.bad/data.xlsx
+++ b/output/calorimetry/ds.3.ampoule.bad/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -100,6 +100,9 @@
     <t xml:space="preserve">h</t>
   </si>
   <si>
+    <t xml:space="preserve">Component</t>
+  </si>
+  <si>
     <t xml:space="preserve">Constant</t>
   </si>
   <si>
@@ -109,12 +112,30 @@
     <t xml:space="preserve">Validity</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">OK</t>
   </si>
   <si>
+    <t xml:space="preserve">7.72147264480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6844352321448</t>
+  </si>
+  <si>
     <t xml:space="preserve">-Inf</t>
   </si>
   <si>
+    <t xml:space="preserve">7.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.47</t>
+  </si>
+  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -130,6 +151,12 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
     <t xml:space="preserve">tot</t>
   </si>
   <si>
@@ -200,9 +227,6 @@
   </si>
   <si>
     <t xml:space="preserve">initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
   </si>
 </sst>
 </file>
@@ -1162,10 +1186,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -1224,15 +1248,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1240,7 +1264,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1248,10 +1272,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1580,82 +1604,106 @@
       <c r="C1" t="s">
         <v>27</v>
       </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>7.72147264480591</v>
-      </c>
-      <c r="B5" t="n">
-        <v>32.6844352321448</v>
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
+      <c r="D6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0</v>
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>9.47</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1674,7 +1722,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1704,13 +1752,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2">
@@ -1834,104 +1882,62 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1951,13 +1957,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>35</v>
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2">
@@ -1970,181 +1979,232 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" t="s">
         <v>50</v>
       </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
-        <v>41</v>
+      <c r="D16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2163,7 +2223,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">

--- a/output/calorimetry/ds.3.ampoule.bad/data.xlsx
+++ b/output/calorimetry/ds.3.ampoule.bad/data.xlsx
@@ -112,22 +112,22 @@
     <t xml:space="preserve">Validity</t>
   </si>
   <si>
+    <t xml:space="preserve">7.72147264480591</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.6844352321448</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.34</t>
+  </si>
+  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">OK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.72147264480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6844352321448</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Inf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.34</t>
   </si>
   <si>
     <t xml:space="preserve">7.44</t>
@@ -1194,41 +1194,17 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-5.18</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>-5.18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
         <v>-2.96</v>
       </c>
     </row>
@@ -1610,100 +1586,58 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
         <v>34</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1763,10 +1697,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-5.18</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1774,10 +1708,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-2.96</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1785,56 +1719,23 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>-9.49363111862915</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.237034758332043</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.18</v>
+        <v>-18.9066684805445</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>-2.96</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>9.49363111862915</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.237034758332043</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>18.9066684805445</v>
-      </c>
-      <c r="C8" t="n">
         <v>0.444358712972484</v>
       </c>
     </row>
@@ -1893,7 +1794,7 @@
         <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
@@ -1907,7 +1808,7 @@
         <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
@@ -1915,7 +1816,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>42</v>

--- a/output/calorimetry/ds.3.ampoule.bad/data.xlsx
+++ b/output/calorimetry/ds.3.ampoule.bad/data.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t xml:space="preserve">H</t>
   </si>
@@ -112,30 +112,12 @@
     <t xml:space="preserve">Validity</t>
   </si>
   <si>
-    <t xml:space="preserve">7.72147264480591</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.6844352321448</t>
-  </si>
-  <si>
     <t xml:space="preserve">-Inf</t>
   </si>
   <si>
-    <t xml:space="preserve">7.34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">7.44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9.47</t>
-  </si>
-  <si>
     <t xml:space="preserve"/>
   </si>
   <si>
@@ -151,82 +133,79 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
+    <t xml:space="preserve">tot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01911</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1e-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01486</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01965</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004172</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004173</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004191</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.002568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003492</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.003494</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004179</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.004182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lg_k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calorimeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ampoule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">component</t>
+  </si>
+  <si>
+    <t xml:space="preserve">constants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initial volume</t>
+  </si>
+  <si>
     <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01911</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1e-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01486</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01965</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01451</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004191</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002568</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003495</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004183</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003492</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.003494</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004179</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.004182</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lg_k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calorimeter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ampoule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">component</t>
-  </si>
-  <si>
-    <t xml:space="preserve">constants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">initial volume</t>
   </si>
 </sst>
 </file>
@@ -1186,10 +1165,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -1224,15 +1203,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1240,7 +1219,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1248,10 +1227,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1588,56 +1567,56 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="n">
+        <v>7.72147264480591</v>
+      </c>
+      <c r="C2" t="n">
+        <v>32.6844352321448</v>
+      </c>
+      <c r="D2" t="s">
         <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
+      <c r="B3" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>33</v>
+      <c r="B4" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
+      <c r="B5" t="n">
+        <v>9.47</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1656,7 +1635,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -1686,13 +1665,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -1783,60 +1762,60 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>33</v>
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>42</v>
+      <c r="A4" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
+      <c r="A5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
@@ -1858,16 +1837,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -1886,13 +1865,13 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>17</v>
@@ -1900,13 +1879,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
@@ -1914,13 +1893,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1928,13 +1907,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1942,13 +1921,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -1956,13 +1935,13 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -1970,13 +1949,13 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1984,13 +1963,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1998,13 +1977,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -2012,13 +1991,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -2026,13 +2005,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
@@ -2040,13 +2019,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
@@ -2054,13 +2033,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
@@ -2068,13 +2047,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
         <v>23</v>
@@ -2082,13 +2061,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -2096,13 +2075,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
         <v>24</v>
@@ -2124,7 +2103,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2">
